--- a/scripts/us-open-2018.xlsx
+++ b/scripts/us-open-2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mweimer/Documents/Github/golf-pool/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91235D9B-70D3-3C4B-8E19-70D3A5655DA0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80400299-A47A-7741-9F11-50E979CFDACC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19240" yWindow="460" windowWidth="19160" windowHeight="20240" tabRatio="868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19240" yWindow="460" windowWidth="19160" windowHeight="20240" tabRatio="868" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player Tiers &amp; Instructions" sheetId="23" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="259">
   <si>
     <t>Tier A</t>
   </si>
@@ -436,6 +436,9 @@
     <t xml:space="preserve">Chun-An Yu </t>
   </si>
   <si>
+    <t xml:space="preserve">Cole Miller </t>
+  </si>
+  <si>
     <t xml:space="preserve">David Bransdon </t>
   </si>
   <si>
@@ -815,6 +818,9 @@
   </si>
   <si>
     <t>Branden Grace</t>
+  </si>
+  <si>
+    <t>Cameron Weimer</t>
   </si>
 </sst>
 </file>
@@ -1471,10 +1477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:T101"/>
+  <dimension ref="B2:T102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A42" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I97" sqref="I97"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -1499,7 +1505,7 @@
   <sheetData>
     <row r="2" spans="2:20" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="40" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C2" s="38"/>
       <c r="D2" s="38"/>
@@ -1516,12 +1522,12 @@
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B3" s="37" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B4" s="37" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.15">
@@ -1706,7 +1712,7 @@
         <v>33</v>
       </c>
       <c r="I15" s="26" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J15" s="5">
         <v>10000</v>
@@ -1735,11 +1741,11 @@
       </c>
       <c r="S15" s="9">
         <f>COUNT(M:M)</f>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="T15" s="9">
         <f>SUM(P15:S15)</f>
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.15">
@@ -1768,7 +1774,7 @@
         <v>34</v>
       </c>
       <c r="I16" s="26" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J16" s="5">
         <v>10000</v>
@@ -1785,19 +1791,19 @@
       </c>
       <c r="P16" s="29">
         <f>P15/$T$15</f>
-        <v>7.7419354838709681E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="Q16" s="29">
         <f t="shared" ref="Q16:T16" si="0">Q15/$T$15</f>
-        <v>0.12903225806451613</v>
+        <v>0.12820512820512819</v>
       </c>
       <c r="R16" s="29">
         <f t="shared" si="0"/>
-        <v>0.23225806451612904</v>
+        <v>0.23076923076923078</v>
       </c>
       <c r="S16" s="29">
         <f t="shared" si="0"/>
-        <v>0.56129032258064515</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="T16" s="29">
         <f t="shared" si="0"/>
@@ -1924,7 +1930,7 @@
         <v>73</v>
       </c>
       <c r="L19" s="26" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M19" s="5">
         <v>25000</v>
@@ -1966,7 +1972,7 @@
         <v>74</v>
       </c>
       <c r="L20" s="26" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M20" s="5">
         <v>25000</v>
@@ -2008,7 +2014,7 @@
         <v>75</v>
       </c>
       <c r="L21" s="26" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M21" s="5">
         <v>25000</v>
@@ -2092,7 +2098,7 @@
         <v>77</v>
       </c>
       <c r="L23" s="26" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M23" s="5">
         <v>25000</v>
@@ -2166,7 +2172,7 @@
         <v>43</v>
       </c>
       <c r="I25" s="26" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J25" s="5">
         <v>12500</v>
@@ -2410,7 +2416,7 @@
         <v>86</v>
       </c>
       <c r="L32" s="26" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M32" s="5">
         <v>30000</v>
@@ -2442,7 +2448,7 @@
         <v>87</v>
       </c>
       <c r="L33" s="26" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M33" s="5">
         <v>30000</v>
@@ -2546,7 +2552,7 @@
         <v>91</v>
       </c>
       <c r="L37" s="26" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M37" s="5">
         <v>35000</v>
@@ -2568,7 +2574,7 @@
         <v>92</v>
       </c>
       <c r="L38" s="26" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M38" s="5">
         <v>40000</v>
@@ -2580,7 +2586,7 @@
         <v>57</v>
       </c>
       <c r="I39" s="26" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J39" s="5">
         <v>15000</v>
@@ -2734,7 +2740,7 @@
         <v>64</v>
       </c>
       <c r="I46" s="26" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J46" s="5">
         <v>17500</v>
@@ -2766,7 +2772,7 @@
         <v>101</v>
       </c>
       <c r="L47" s="26" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M47" s="5">
         <v>50000</v>
@@ -2788,7 +2794,7 @@
         <v>102</v>
       </c>
       <c r="L48" s="26" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M48" s="5">
         <v>50000</v>
@@ -2810,7 +2816,7 @@
         <v>103</v>
       </c>
       <c r="L49" s="26" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M49" s="5">
         <v>50000</v>
@@ -2832,7 +2838,7 @@
         <v>104</v>
       </c>
       <c r="L50" s="26" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M50" s="5">
         <v>50000</v>
@@ -2844,7 +2850,7 @@
         <v>105</v>
       </c>
       <c r="L51" s="26" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M51" s="5">
         <v>50000</v>
@@ -2856,7 +2862,7 @@
         <v>106</v>
       </c>
       <c r="L52" s="26" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M52" s="5">
         <v>50000</v>
@@ -2868,7 +2874,7 @@
         <v>107</v>
       </c>
       <c r="L53" s="26" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M53" s="5">
         <v>50000</v>
@@ -2880,7 +2886,7 @@
         <v>108</v>
       </c>
       <c r="L54" s="26" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M54" s="5">
         <v>50000</v>
@@ -2892,7 +2898,7 @@
         <v>109</v>
       </c>
       <c r="L55" s="26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M55" s="5">
         <v>50000</v>
@@ -2904,7 +2910,7 @@
         <v>110</v>
       </c>
       <c r="L56" s="26" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M56" s="5">
         <v>50000</v>
@@ -2916,7 +2922,7 @@
         <v>111</v>
       </c>
       <c r="L57" s="26" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M57" s="5">
         <v>50000</v>
@@ -2952,7 +2958,7 @@
         <v>114</v>
       </c>
       <c r="L60" s="26" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M60" s="5">
         <v>50000</v>
@@ -3036,7 +3042,7 @@
         <v>121</v>
       </c>
       <c r="L67" s="26" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M67" s="5">
         <v>75000</v>
@@ -3048,7 +3054,7 @@
         <v>122</v>
       </c>
       <c r="L68" s="26" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M68" s="5">
         <v>75000</v>
@@ -3060,7 +3066,7 @@
         <v>123</v>
       </c>
       <c r="L69" s="26" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M69" s="5">
         <v>75000</v>
@@ -3096,7 +3102,7 @@
         <v>126</v>
       </c>
       <c r="L72" s="26" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M72" s="5">
         <v>100000</v>
@@ -3108,7 +3114,7 @@
         <v>127</v>
       </c>
       <c r="L73" s="26" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M73" s="5">
         <v>100000</v>
@@ -3120,7 +3126,7 @@
         <v>128</v>
       </c>
       <c r="L74" s="26" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M74" s="5">
         <v>100000</v>
@@ -3132,7 +3138,7 @@
         <v>129</v>
       </c>
       <c r="L75" s="26" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M75" s="5">
         <v>100000</v>
@@ -3167,14 +3173,14 @@
         <v>28</v>
       </c>
       <c r="D78" s="31" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K78" s="27">
-        <f t="shared" si="4"/>
+        <f>K77+1</f>
         <v>132</v>
       </c>
       <c r="L78" s="26" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="M78" s="5">
         <v>100000</v>
@@ -3204,7 +3210,7 @@
         <v>134</v>
       </c>
       <c r="L80" s="26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M80" s="5">
         <v>100000</v>
@@ -3212,11 +3218,11 @@
     </row>
     <row r="81" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K81" s="27">
-        <f t="shared" ref="K81:K101" si="5">K80+1</f>
+        <f t="shared" ref="K81:K102" si="5">K80+1</f>
         <v>135</v>
       </c>
       <c r="L81" s="26" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="M81" s="5">
         <v>100000</v>
@@ -3255,7 +3261,7 @@
         <v>134</v>
       </c>
       <c r="M84" s="5">
-        <v>125000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="85" spans="11:13" x14ac:dyDescent="0.15">
@@ -3291,7 +3297,7 @@
         <v>137</v>
       </c>
       <c r="M87" s="5">
-        <v>150000</v>
+        <v>125000</v>
       </c>
     </row>
     <row r="88" spans="11:13" x14ac:dyDescent="0.15">
@@ -3351,7 +3357,7 @@
         <v>142</v>
       </c>
       <c r="M92" s="5">
-        <v>200000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="93" spans="11:13" x14ac:dyDescent="0.15">
@@ -3384,7 +3390,7 @@
         <v>149</v>
       </c>
       <c r="L95" s="26" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="M95" s="5">
         <v>200000</v>
@@ -3396,7 +3402,7 @@
         <v>150</v>
       </c>
       <c r="L96" s="26" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="M96" s="5">
         <v>200000</v>
@@ -3459,6 +3465,18 @@
         <v>150</v>
       </c>
       <c r="M101" s="5">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="102" spans="11:13" x14ac:dyDescent="0.15">
+      <c r="K102" s="27">
+        <f t="shared" si="5"/>
+        <v>156</v>
+      </c>
+      <c r="L102" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="M102" s="5">
         <v>250000</v>
       </c>
     </row>
@@ -3940,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.15">
@@ -3948,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.15">
@@ -4006,7 +4024,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
           <x14:formula1>
-            <xm:f>'Player Tiers &amp; Instructions'!$L$15:$L$76</xm:f>
+            <xm:f>'Player Tiers &amp; Instructions'!$L$15:$L$77</xm:f>
           </x14:formula1>
           <xm:sqref>C14:N14</xm:sqref>
         </x14:dataValidation>
@@ -4018,10 +4036,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE96617-0A44-8A44-BF27-781AC3DE0595}">
-  <dimension ref="A1:C119"/>
+  <dimension ref="A1:C125"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="D131" sqref="D131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4032,7 +4050,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="53" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -4040,18 +4058,18 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C3" t="s">
         <v>59</v>
@@ -4059,13 +4077,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -4076,12 +4094,12 @@
         <v>109</v>
       </c>
       <c r="C5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="53" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -4130,7 +4148,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="53" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -4179,7 +4197,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="53" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -4217,7 +4235,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B23" t="s">
         <v>101</v>
@@ -4228,7 +4246,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="53" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -4244,13 +4262,13 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B27" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C27" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -4261,7 +4279,7 @@
         <v>75</v>
       </c>
       <c r="C28" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -4269,26 +4287,26 @@
         <v>101</v>
       </c>
       <c r="B29" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C29" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="53" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B32" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C32" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -4296,56 +4314,56 @@
         <v>49</v>
       </c>
       <c r="B33" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C33" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="54" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B34" s="54" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C34" s="54" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B35" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C35" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="53" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B38" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C38" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B39" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C39" t="s">
         <v>56</v>
@@ -4353,13 +4371,13 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B40" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C40" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -4367,7 +4385,7 @@
         <v>98</v>
       </c>
       <c r="B41" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C41" t="s">
         <v>102</v>
@@ -4375,7 +4393,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="53" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -4424,7 +4442,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="53" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -4473,7 +4491,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="53" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -4522,7 +4540,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="53" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -4571,7 +4589,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="53" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -4615,12 +4633,12 @@
         <v>110</v>
       </c>
       <c r="C71" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="53" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -4628,10 +4646,10 @@
         <v>33</v>
       </c>
       <c r="B74" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C74" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -4639,18 +4657,18 @@
         <v>52</v>
       </c>
       <c r="B75" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C75" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="54" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B76" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C76" t="s">
         <v>71</v>
@@ -4669,7 +4687,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="53" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -4702,12 +4720,12 @@
         <v>71</v>
       </c>
       <c r="C82" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B83" t="s">
         <v>102</v>
@@ -4718,7 +4736,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="53" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -4767,7 +4785,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="53" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -4816,7 +4834,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="53" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
@@ -4824,7 +4842,7 @@
         <v>33</v>
       </c>
       <c r="B98" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C98" t="s">
         <v>40</v>
@@ -4843,78 +4861,78 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B100" t="s">
         <v>71</v>
       </c>
       <c r="C100" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B101" t="s">
         <v>107</v>
       </c>
       <c r="C101" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="53" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B104" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C104" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B105" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C105" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B106" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C106" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B107" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C107" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="53" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
@@ -4963,7 +4981,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="53" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
@@ -4971,18 +4989,18 @@
         <v>35</v>
       </c>
       <c r="B116" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C116" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B117" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C117" t="s">
         <v>59</v>
@@ -4990,10 +5008,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B118" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C118" t="s">
         <v>67</v>
@@ -5001,13 +5019,62 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B119" t="s">
         <v>96</v>
       </c>
       <c r="C119" t="s">
         <v>109</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="53" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>216</v>
+      </c>
+      <c r="B122" t="s">
+        <v>41</v>
+      </c>
+      <c r="C122" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>45</v>
+      </c>
+      <c r="B123" t="s">
+        <v>198</v>
+      </c>
+      <c r="C123" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>165</v>
+      </c>
+      <c r="B124" s="54" t="s">
+        <v>218</v>
+      </c>
+      <c r="C124" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>111</v>
+      </c>
+      <c r="B125" t="s">
+        <v>117</v>
+      </c>
+      <c r="C125" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/us-open-2018.xlsx
+++ b/scripts/us-open-2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mweimer/Documents/Github/golf-pool/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80400299-A47A-7741-9F11-50E979CFDACC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D509934E-911C-444C-B791-10CC047B6EFB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19240" yWindow="460" windowWidth="19160" windowHeight="20240" tabRatio="868" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -655,9 +655,6 @@
     <t>Kevin Donoher</t>
   </si>
   <si>
-    <t>Ryan Boodouris</t>
-  </si>
-  <si>
     <t>David Prevo</t>
   </si>
   <si>
@@ -821,6 +818,9 @@
   </si>
   <si>
     <t>Cameron Weimer</t>
+  </si>
+  <si>
+    <t>Ryan Boudouris</t>
   </si>
 </sst>
 </file>
@@ -1479,8 +1479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:T102"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L74" sqref="L74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -4038,8 +4038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE96617-0A44-8A44-BF27-781AC3DE0595}">
   <dimension ref="A1:C125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="D131" sqref="D131"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4148,7 +4148,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="53" t="s">
-        <v>203</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -4197,7 +4197,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="53" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -4246,7 +4246,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="53" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -4262,13 +4262,13 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>205</v>
+      </c>
+      <c r="B27" t="s">
         <v>206</v>
       </c>
-      <c r="B27" t="s">
-        <v>207</v>
-      </c>
       <c r="C27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -4279,7 +4279,7 @@
         <v>75</v>
       </c>
       <c r="C28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -4287,23 +4287,23 @@
         <v>101</v>
       </c>
       <c r="B29" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="53" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C32" t="s">
         <v>195</v>
@@ -4314,56 +4314,56 @@
         <v>49</v>
       </c>
       <c r="B33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C33" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="54" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B34" s="54" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C34" s="54" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B35" t="s">
+        <v>218</v>
+      </c>
+      <c r="C35" t="s">
         <v>219</v>
-      </c>
-      <c r="C35" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="53" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B38" t="s">
         <v>195</v>
       </c>
       <c r="C38" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B39" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C39" t="s">
         <v>56</v>
@@ -4374,7 +4374,7 @@
         <v>164</v>
       </c>
       <c r="B40" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C40" t="s">
         <v>165</v>
@@ -4385,7 +4385,7 @@
         <v>98</v>
       </c>
       <c r="B41" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C41" t="s">
         <v>102</v>
@@ -4393,7 +4393,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="53" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -4442,7 +4442,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="53" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -4491,7 +4491,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="53" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -4540,7 +4540,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="53" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -4589,7 +4589,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="53" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -4638,7 +4638,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="53" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -4646,10 +4646,10 @@
         <v>33</v>
       </c>
       <c r="B74" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C74" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -4657,18 +4657,18 @@
         <v>52</v>
       </c>
       <c r="B75" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C75" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="54" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C76" t="s">
         <v>71</v>
@@ -4687,7 +4687,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="53" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -4720,7 +4720,7 @@
         <v>71</v>
       </c>
       <c r="C82" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -4736,7 +4736,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="53" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -4785,7 +4785,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="53" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -4834,7 +4834,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="53" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
@@ -4842,7 +4842,7 @@
         <v>33</v>
       </c>
       <c r="B98" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C98" t="s">
         <v>40</v>
@@ -4861,37 +4861,37 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B100" t="s">
         <v>71</v>
       </c>
       <c r="C100" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B101" t="s">
         <v>107</v>
       </c>
       <c r="C101" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="53" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B104" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C104" t="s">
         <v>196</v>
@@ -4899,13 +4899,13 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
+        <v>245</v>
+      </c>
+      <c r="B105" t="s">
         <v>246</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
         <v>247</v>
-      </c>
-      <c r="C105" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
@@ -4913,26 +4913,26 @@
         <v>199</v>
       </c>
       <c r="B106" t="s">
+        <v>248</v>
+      </c>
+      <c r="C106" t="s">
         <v>249</v>
-      </c>
-      <c r="C106" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
+        <v>250</v>
+      </c>
+      <c r="B107" t="s">
         <v>251</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
         <v>252</v>
-      </c>
-      <c r="C107" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="53" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
@@ -4981,7 +4981,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="53" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
@@ -4992,15 +4992,15 @@
         <v>195</v>
       </c>
       <c r="C116" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B117" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C117" t="s">
         <v>59</v>
@@ -5008,10 +5008,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B118" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C118" t="s">
         <v>67</v>
@@ -5019,7 +5019,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B119" t="s">
         <v>96</v>
@@ -5030,18 +5030,18 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="53" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B122" t="s">
         <v>41</v>
       </c>
       <c r="C122" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
@@ -5052,7 +5052,7 @@
         <v>198</v>
       </c>
       <c r="C123" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
@@ -5060,7 +5060,7 @@
         <v>165</v>
       </c>
       <c r="B124" s="54" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C124" t="s">
         <v>67</v>

--- a/scripts/us-open-2018.xlsx
+++ b/scripts/us-open-2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mweimer/Documents/Github/golf-pool/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D509934E-911C-444C-B791-10CC047B6EFB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ACDD1A3-E4E3-6942-BA6A-9FC09BAD87EA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19240" yWindow="460" windowWidth="19160" windowHeight="20240" tabRatio="868" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="16660" tabRatio="868" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player Tiers &amp; Instructions" sheetId="23" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="258">
   <si>
     <t>Tier A</t>
   </si>
@@ -746,9 +746,6 @@
   </si>
   <si>
     <t>Tony Finau</t>
-  </si>
-  <si>
-    <t>Brian Harman</t>
   </si>
   <si>
     <t>Steven Laake</t>
@@ -1479,8 +1476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:T102"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L74" sqref="L74"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -4038,8 +4035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE96617-0A44-8A44-BF27-781AC3DE0595}">
   <dimension ref="A1:C125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4148,7 +4145,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="53" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -4668,7 +4665,7 @@
         <v>213</v>
       </c>
       <c r="B76" t="s">
-        <v>234</v>
+        <v>165</v>
       </c>
       <c r="C76" t="s">
         <v>71</v>
@@ -4679,7 +4676,7 @@
         <v>105</v>
       </c>
       <c r="B77" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="C77" t="s">
         <v>96</v>
@@ -4687,7 +4684,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="53" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -4720,7 +4717,7 @@
         <v>71</v>
       </c>
       <c r="C82" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -4736,7 +4733,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="53" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -4785,7 +4782,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="53" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -4834,7 +4831,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="53" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
@@ -4842,7 +4839,7 @@
         <v>33</v>
       </c>
       <c r="B98" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C98" t="s">
         <v>40</v>
@@ -4872,18 +4869,18 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B101" t="s">
         <v>107</v>
       </c>
       <c r="C101" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="53" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
@@ -4891,7 +4888,7 @@
         <v>222</v>
       </c>
       <c r="B104" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C104" t="s">
         <v>196</v>
@@ -4899,13 +4896,13 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
+        <v>244</v>
+      </c>
+      <c r="B105" t="s">
         <v>245</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
         <v>246</v>
-      </c>
-      <c r="C105" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
@@ -4913,26 +4910,26 @@
         <v>199</v>
       </c>
       <c r="B106" t="s">
+        <v>247</v>
+      </c>
+      <c r="C106" t="s">
         <v>248</v>
-      </c>
-      <c r="C106" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
+        <v>249</v>
+      </c>
+      <c r="B107" t="s">
         <v>250</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
         <v>251</v>
-      </c>
-      <c r="C107" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="53" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
@@ -4981,7 +4978,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="53" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
@@ -5000,7 +4997,7 @@
         <v>233</v>
       </c>
       <c r="B117" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C117" t="s">
         <v>59</v>
@@ -5008,7 +5005,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B118" t="s">
         <v>224</v>
@@ -5019,7 +5016,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B119" t="s">
         <v>96</v>
@@ -5030,7 +5027,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="53" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">

--- a/scripts/us-open-2018.xlsx
+++ b/scripts/us-open-2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mweimer/Documents/Github/golf-pool/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ACDD1A3-E4E3-6942-BA6A-9FC09BAD87EA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09DE5766-6A69-3E42-92C5-CE7588EE51C5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="16660" tabRatio="868" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="262">
   <si>
     <t>Tier A</t>
   </si>
@@ -818,6 +818,18 @@
   </si>
   <si>
     <t>Ryan Boudouris</t>
+  </si>
+  <si>
+    <t>Dan Godshall</t>
+  </si>
+  <si>
+    <t>Andrew Kubaszewski </t>
+  </si>
+  <si>
+    <t>Jhonattan Vegas</t>
+  </si>
+  <si>
+    <t>Matt Walker</t>
   </si>
 </sst>
 </file>
@@ -4033,10 +4045,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE96617-0A44-8A44-BF27-781AC3DE0595}">
-  <dimension ref="A1:C125"/>
+  <dimension ref="A1:L143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="C138" sqref="C138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5074,6 +5086,153 @@
         <v>102</v>
       </c>
     </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="53" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>33</v>
+      </c>
+      <c r="B128" t="s">
+        <v>38</v>
+      </c>
+      <c r="C128" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>49</v>
+      </c>
+      <c r="B129" t="s">
+        <v>45</v>
+      </c>
+      <c r="C129" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>70</v>
+      </c>
+      <c r="B130" t="s">
+        <v>68</v>
+      </c>
+      <c r="C130" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>97</v>
+      </c>
+      <c r="B131" t="s">
+        <v>101</v>
+      </c>
+      <c r="C131" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="53" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>33</v>
+      </c>
+      <c r="B134" t="s">
+        <v>239</v>
+      </c>
+      <c r="C134" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>233</v>
+      </c>
+      <c r="B135" t="s">
+        <v>51</v>
+      </c>
+      <c r="C135" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>199</v>
+      </c>
+      <c r="B136" t="s">
+        <v>224</v>
+      </c>
+      <c r="C136" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>250</v>
+      </c>
+      <c r="B137" t="s">
+        <v>260</v>
+      </c>
+      <c r="C137" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="53" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>33</v>
+      </c>
+      <c r="B140" t="s">
+        <v>40</v>
+      </c>
+      <c r="C140" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>49</v>
+      </c>
+      <c r="B141" t="s">
+        <v>48</v>
+      </c>
+      <c r="C141" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>72</v>
+      </c>
+      <c r="B142" t="s">
+        <v>69</v>
+      </c>
+      <c r="C142" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>110</v>
+      </c>
+      <c r="B143" t="s">
+        <v>97</v>
+      </c>
+      <c r="C143" t="s">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
